--- a/CASUAL/LA TICC/SORIANO, FRANCISCO.xlsx
+++ b/CASUAL/LA TICC/SORIANO, FRANCISCO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1580,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1741,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.332999999999998</v>
+        <v>62.745999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2906,11 +2918,15 @@
       <c r="A67" s="41">
         <v>44621</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -2966,11 +2982,15 @@
       <c r="A70" s="41">
         <v>44713</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -2986,11 +3006,15 @@
       <c r="A71" s="41">
         <v>44743</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="40">
+        <v>0.254</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -3052,11 +3076,15 @@
       <c r="A74" s="41">
         <v>44835</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="40"/>
+      <c r="D74" s="40">
+        <v>0.25</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -5312,13 +5340,13 @@
         <v>111.125</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>16</v>
+      </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0.5</v>
+        <v>3.3000000000000015E-2</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -5333,11 +5361,11 @@
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>0</v>
+        <v>3.3000000000000015E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">

--- a/CASUAL/LA TICC/SORIANO, FRANCISCO.xlsx
+++ b/CASUAL/LA TICC/SORIANO, FRANCISCO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696EB68-1AB9-4468-8895-5A96A3D08905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -285,12 +286,21 @@
   </si>
   <si>
     <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2/7,8,10,11/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -668,14 +678,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -685,9 +698,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,7 +1209,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1216,25 +1226,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K109" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K109" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1246,25 +1256,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1571,34 +1581,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1610,16 +1620,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1628,18 +1638,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>40003</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1650,16 +1660,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1667,7 +1677,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1680,24 +1690,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1741,7 +1751,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.745999999999995</v>
+        <v>58.995999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1751,12 +1761,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>90</v>
+        <v>87.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1788,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1798,7 +1808,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1818,7 +1828,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1838,7 +1848,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1858,7 +1868,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1878,7 +1888,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1898,7 +1908,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1918,7 +1928,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1938,7 +1948,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1958,7 +1968,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1978,7 +1988,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1998,7 +2008,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2022,7 +2032,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>50</v>
       </c>
@@ -2040,7 +2050,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2060,7 +2070,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2080,7 +2090,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2100,7 +2110,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2120,7 +2130,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2140,7 +2150,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2160,7 +2170,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2180,7 +2190,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2204,7 +2214,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2224,7 +2234,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2244,7 +2254,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2264,7 +2274,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="48"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2288,7 +2298,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>53</v>
       </c>
@@ -2306,7 +2316,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2326,9 +2336,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -2346,9 +2356,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -2366,9 +2376,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2386,9 +2396,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -2406,9 +2416,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -2426,9 +2436,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -2444,11 +2454,11 @@
       <c r="H43" s="40"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -2466,9 +2476,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -2486,9 +2496,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2504,11 +2514,11 @@
       <c r="H46" s="40"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -2526,15 +2536,19 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
-        <v>44136</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="40">
+        <v>2</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -2544,43 +2558,37 @@
       <c r="H48" s="40"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
-        <v>44166</v>
-      </c>
+      <c r="K48" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="40">
-        <v>3</v>
-      </c>
+      <c r="D50" s="40"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -2592,27 +2600,29 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
-        <v>59</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="41">
+        <v>44197</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="40"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -2628,11 +2638,11 @@
       <c r="H52" s="40"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -2650,9 +2660,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -2670,9 +2680,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -2688,11 +2698,11 @@
       <c r="H55" s="40"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="48"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2708,11 +2718,11 @@
       <c r="H56" s="40"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -2730,9 +2740,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -2750,9 +2760,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -2770,15 +2780,19 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
-        <v>44440</v>
-      </c>
-      <c r="B60" s="20"/>
+        <v>44470</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
-      <c r="D60" s="40"/>
+      <c r="D60" s="40">
+        <v>5</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
@@ -2788,21 +2802,19 @@
       <c r="H60" s="40"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
-        <v>44470</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="40">
-        <v>5</v>
-      </c>
+      <c r="D61" s="40"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -2812,13 +2824,11 @@
       <c r="H61" s="40"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -2836,47 +2846,47 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
-        <v>44531</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="40"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
-        <v>62</v>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="41">
+        <v>44562</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="40"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -2894,15 +2904,19 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
-        <v>44593</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2914,19 +2928,15 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
-        <v>44621</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>82</v>
-      </c>
+        <v>44652</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="40">
-        <v>3.3000000000000015E-2</v>
-      </c>
+      <c r="D67" s="40"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -2938,9 +2948,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -2956,17 +2966,21 @@
       <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="48"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
-        <v>44682</v>
-      </c>
-      <c r="B69" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="40">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -2976,20 +2990,20 @@
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="48"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
       <c r="D70" s="40">
-        <v>5.000000000000001E-2</v>
+        <v>0.254</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
@@ -3002,18 +3016,18 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="40">
-        <v>0.254</v>
+        <v>4</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
@@ -3024,21 +3038,19 @@
       <c r="H71" s="40"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
-        <v>44774</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>65</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40">
-        <v>4</v>
-      </c>
+      <c r="D72" s="40"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -3048,19 +3060,21 @@
       <c r="H72" s="40"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
-        <v>44805</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="40">
+        <v>0.25</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -3072,18 +3086,18 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -3096,18 +3110,18 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
       <c r="D75" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -3120,39 +3134,33 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="41">
-        <v>44896</v>
-      </c>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="40">
-        <v>1</v>
+        <v>1.167</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="20" t="s">
-        <v>77</v>
-      </c>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="40">
-        <v>1.167</v>
-      </c>
+      <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -3164,27 +3172,29 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
-        <v>69</v>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="41">
+        <v>44957</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3202,9 +3212,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3222,9 +3232,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3242,9 +3252,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -3262,9 +3272,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -3282,9 +3292,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3302,9 +3312,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -3322,9 +3332,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -3342,9 +3352,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -3362,9 +3372,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -3382,15 +3392,19 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
-        <v>45260</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="40"/>
+      <c r="D89" s="40">
+        <v>5</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
@@ -3402,9 +3416,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41">
-        <v>45291</v>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3420,24 +3434,36 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="41">
+        <v>45322</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="40"/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="40">
+        <v>4</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="K91" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="41">
+        <v>45351</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
@@ -3452,8 +3478,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="41">
+        <v>45382</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
@@ -3468,8 +3496,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
+        <v>45412</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3484,8 +3514,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
+        <v>45443</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
@@ -3500,8 +3532,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="41">
+        <v>45473</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3516,8 +3550,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="41">
+        <v>45504</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3532,8 +3568,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>45535</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3548,7 +3586,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3564,7 +3602,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3580,7 +3618,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3596,7 +3634,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3612,7 +3650,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3628,7 +3666,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3644,7 +3682,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3660,7 +3698,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3676,7 +3714,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3692,7 +3730,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3708,7 +3746,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="42"/>
       <c r="B109" s="15"/>
       <c r="C109" s="43"/>
@@ -3726,23 +3764,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3765,34 +3803,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3804,16 +3842,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3822,18 +3860,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>40003</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3844,16 +3882,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3861,7 +3899,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3874,24 +3912,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3950,7 +3988,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3972,7 +4010,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43132</v>
       </c>
@@ -3996,7 +4034,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4018,7 +4056,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>43191</v>
       </c>
@@ -4042,7 +4080,7 @@
         <v>43232</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4064,7 +4102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -4084,7 +4122,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43405</v>
       </c>
@@ -4108,7 +4146,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -4130,7 +4168,7 @@
         <v>43406</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>50</v>
       </c>
@@ -4148,7 +4186,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43497</v>
       </c>
@@ -4172,7 +4210,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43586</v>
       </c>
@@ -4194,7 +4232,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43709</v>
       </c>
@@ -4218,7 +4256,7 @@
         <v>43736</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43770</v>
       </c>
@@ -4242,7 +4280,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>53</v>
       </c>
@@ -4260,7 +4298,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43862</v>
       </c>
@@ -4282,7 +4320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>54</v>
@@ -4302,7 +4340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
@@ -4326,7 +4364,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>44044</v>
       </c>
@@ -4350,7 +4388,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>44075</v>
       </c>
@@ -4374,7 +4412,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>59</v>
       </c>
@@ -4392,7 +4430,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>44197</v>
       </c>
@@ -4414,7 +4452,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>44317</v>
       </c>
@@ -4436,7 +4474,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>44470</v>
       </c>
@@ -4460,7 +4498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>62</v>
       </c>
@@ -4478,7 +4516,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>44652</v>
       </c>
@@ -4502,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>44682</v>
       </c>
@@ -4526,7 +4564,7 @@
         <v>44684</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="20" t="s">
         <v>49</v>
@@ -4546,7 +4584,7 @@
         <v>44698</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>44774</v>
       </c>
@@ -4570,7 +4608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4626,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44927</v>
       </c>
@@ -4612,7 +4650,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>63</v>
@@ -4634,7 +4672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>44986</v>
       </c>
@@ -4656,7 +4694,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="20" t="s">
         <v>49</v>
@@ -4676,7 +4714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>45017</v>
       </c>
@@ -4694,7 +4732,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>45047</v>
       </c>
@@ -4718,7 +4756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>45108</v>
       </c>
@@ -4742,7 +4780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>45139</v>
       </c>
@@ -4766,7 +4804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
       <c r="B47" s="20" t="s">
         <v>46</v>
@@ -4788,7 +4826,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45174</v>
       </c>
@@ -4812,7 +4850,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>45204</v>
       </c>
@@ -4836,7 +4874,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>45261</v>
       </c>
@@ -4860,7 +4898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4876,7 +4914,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4892,7 +4930,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4908,7 +4946,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4924,7 +4962,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4940,7 +4978,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4956,7 +4994,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4972,7 +5010,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4988,7 +5026,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -5004,7 +5042,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -5020,7 +5058,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5036,7 +5074,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5052,7 +5090,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5068,7 +5106,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5084,7 +5122,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5100,7 +5138,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5116,7 +5154,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5132,7 +5170,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5148,7 +5186,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5164,7 +5202,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5180,7 +5218,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5196,7 +5234,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5212,7 +5250,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="42"/>
       <c r="B73" s="15"/>
       <c r="C73" s="43"/>
@@ -5243,10 +5281,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5269,28 +5307,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5303,7 +5341,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5332,7 +5370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>99.375</v>
       </c>
@@ -5358,7 +5396,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5373,10 +5411,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5396,7 +5434,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5422,7 +5460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5448,7 +5486,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5474,7 +5512,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5500,7 +5538,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5526,7 +5564,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5552,7 +5590,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5578,7 +5616,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5604,7 +5642,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5624,7 +5662,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5644,7 +5682,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5664,7 +5702,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5685,7 +5723,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5706,7 +5744,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5727,7 +5765,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5748,7 +5786,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5769,7 +5807,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5790,7 +5828,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5811,7 +5849,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5832,7 +5870,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5853,7 +5891,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5874,7 +5912,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5895,7 +5933,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5916,7 +5954,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5937,7 +5975,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5958,7 +5996,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5979,7 +6017,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -6000,7 +6038,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -6021,7 +6059,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6042,7 +6080,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6063,7 +6101,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6084,7 +6122,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6093,7 +6131,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6102,7 +6140,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6111,7 +6149,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6120,7 +6158,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6129,7 +6167,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6138,7 +6176,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6147,7 +6185,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6156,7 +6194,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6165,7 +6203,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6174,7 +6212,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6183,7 +6221,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6192,7 +6230,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6201,7 +6239,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6210,7 +6248,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6219,7 +6257,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6228,7 +6266,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6237,7 +6275,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6246,7 +6284,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6255,7 +6293,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6264,7 +6302,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6273,7 +6311,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6282,7 +6320,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6291,7 +6329,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6300,7 +6338,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6309,7 +6347,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6318,7 +6356,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6327,7 +6365,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6336,7 +6374,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6345,7 +6383,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
